--- a/Input/shipping_Falabella.xlsx
+++ b/Input/shipping_Falabella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orbis Data\Desktop\RPA\OMS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51CDB57-70DD-45EE-8F00-D09D877A3706}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E91416-055A-4F9D-B24E-8AA581174649}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6150" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$1182</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -1173,7 +1172,7 @@
   <dimension ref="A1:J1182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1029" activeCellId="6" sqref="A828:XFD828 A790:XFD790 A920:XFD920 A927:XFD927 A1010:XFD1010 A1012:XFD1012 A1029:XFD1029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -36660,7 +36659,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
